--- a/Data/anthropometriques.xlsx
+++ b/Data/anthropometriques.xlsx
@@ -12,7 +12,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Sujet</t>
+  </si>
   <si>
     <t xml:space="preserve">A1</t>
   </si>
@@ -36,6 +39,15 @@
   </si>
   <si>
     <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poids</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masse grasse</t>
   </si>
 </sst>
 </file>
@@ -392,82 +404,94 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
         <v>25.5</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>25.9</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>22.5</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>22.9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>27.4</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>27.8</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>18.1</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>18.5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
         <v>74</v>
       </c>
-      <c r="B3" t="n">
+      <c r="C3" t="n">
         <v>73.2</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>81</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>84</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>83.4</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>84.1</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>69</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>72</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>9.8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>9.4</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>10.12</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>9.5</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>9</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>8.5</v>
       </c>
     </row>
